--- a/trunk/Assign_Write_UseCase_Description.xlsx
+++ b/trunk/Assign_Write_UseCase_Description.xlsx
@@ -716,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1395,52 +1395,56 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C65" s="2"/>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <f>D64/5</f>
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C66" s="2"/>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C67" s="2"/>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C68" s="2"/>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C69" s="2"/>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C70" s="2"/>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C71" s="2"/>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C72" s="2"/>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C73" s="2"/>
     </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C74" s="2"/>
     </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C75" s="2"/>
     </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C76" s="2"/>
     </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C77" s="2"/>
     </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C78" s="2"/>
     </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C79" s="2"/>
     </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C80" s="2"/>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.25">

--- a/trunk/Assign_Write_UseCase_Description.xlsx
+++ b/trunk/Assign_Write_UseCase_Description.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tri Le Nguyen Huu\Desktop\TSMT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CP\group-22-tsmt\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="4656"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="49">
   <si>
     <t>Search</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>Manage Banner</t>
+  </si>
+  <si>
+    <t>HienNV</t>
   </si>
 </sst>
 </file>
@@ -178,21 +181,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -416,6 +419,45 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -437,12 +479,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -455,36 +491,6 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -496,9 +502,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -782,24 +785,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66:E68"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.8984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="49"/>
-      <c r="B2" s="35" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="30" t="s">
         <v>47</v>
       </c>
       <c r="D2" s="15" t="s">
@@ -811,9 +814,9 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="49"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="42"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="30"/>
       <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
@@ -823,9 +826,9 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="42"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="30"/>
       <c r="D4" s="15" t="s">
         <v>3</v>
       </c>
@@ -835,9 +838,9 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="42" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="30" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="15" t="s">
@@ -846,12 +849,14 @@
       <c r="E5" s="2">
         <v>4</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="42"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="15" t="s">
         <v>1</v>
       </c>
@@ -861,9 +866,9 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="42"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="30"/>
       <c r="D7" s="15" t="s">
         <v>2</v>
       </c>
@@ -873,9 +878,9 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="42"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="30"/>
       <c r="D8" s="15" t="s">
         <v>3</v>
       </c>
@@ -885,9 +890,9 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="42" t="s">
+      <c r="A9" s="22"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="30" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -896,12 +901,14 @@
       <c r="E9" s="2">
         <v>8</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="42"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="30"/>
       <c r="D10" s="15" t="s">
         <v>1</v>
       </c>
@@ -911,9 +918,9 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="42"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="30"/>
       <c r="D11" s="15" t="s">
         <v>2</v>
       </c>
@@ -923,9 +930,9 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="42"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="30"/>
       <c r="D12" s="15" t="s">
         <v>3</v>
       </c>
@@ -935,9 +942,9 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="42" t="s">
+      <c r="A13" s="22"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="15" t="s">
@@ -946,12 +953,14 @@
       <c r="E13" s="2">
         <v>12</v>
       </c>
-      <c r="F13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="42"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="30"/>
       <c r="D14" s="15" t="s">
         <v>1</v>
       </c>
@@ -961,9 +970,9 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="42"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="30"/>
       <c r="D15" s="15" t="s">
         <v>2</v>
       </c>
@@ -973,9 +982,9 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="42"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="30"/>
       <c r="D16" s="15" t="s">
         <v>3</v>
       </c>
@@ -985,21 +994,21 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="43" t="s">
+      <c r="A17" s="22"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="43"/>
+      <c r="D17" s="31"/>
       <c r="E17" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="49">
+      <c r="A18" s="22">
         <v>2</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="37" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="16" t="s">
@@ -1011,8 +1020,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="49"/>
-      <c r="B19" s="25"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="38"/>
       <c r="C19" s="16" t="s">
         <v>9</v>
       </c>
@@ -1020,10 +1029,13 @@
       <c r="E19" s="2">
         <v>18</v>
       </c>
+      <c r="F19" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
-      <c r="B20" s="25"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="38"/>
       <c r="C20" s="16" t="s">
         <v>10</v>
       </c>
@@ -1033,8 +1045,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
-      <c r="B21" s="25"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="38"/>
       <c r="C21" s="16" t="s">
         <v>11</v>
       </c>
@@ -1042,10 +1054,13 @@
       <c r="E21" s="2">
         <v>20</v>
       </c>
+      <c r="F21" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
-      <c r="B22" s="25"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="38"/>
       <c r="C22" s="16" t="s">
         <v>12</v>
       </c>
@@ -1055,8 +1070,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
-      <c r="B23" s="25"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="38"/>
       <c r="C23" s="17" t="s">
         <v>13</v>
       </c>
@@ -1066,8 +1081,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
-      <c r="B24" s="25"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="38"/>
       <c r="C24" s="17" t="s">
         <v>27</v>
       </c>
@@ -1077,24 +1092,24 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="47" t="s">
+      <c r="A25" s="22"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="48"/>
+      <c r="D25" s="49"/>
       <c r="E25" s="2">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="49">
+      <c r="A26" s="22">
         <v>6</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="32" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="19" t="s">
@@ -1106,9 +1121,9 @@
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="49"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
       <c r="D27" s="19" t="s">
         <v>16</v>
       </c>
@@ -1118,9 +1133,9 @@
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="49"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="44"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="34"/>
       <c r="D28" s="19" t="s">
         <v>17</v>
       </c>
@@ -1130,8 +1145,8 @@
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
-      <c r="B29" s="30"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="20" t="s">
         <v>18</v>
       </c>
@@ -1141,24 +1156,27 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="49"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="45" t="s">
+      <c r="A30" s="22"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="46"/>
+      <c r="D30" s="47"/>
       <c r="E30" s="2">
         <v>29</v>
       </c>
+      <c r="F30" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="49">
+      <c r="A31" s="22">
         <v>4</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="39" t="s">
+      <c r="C31" s="27" t="s">
         <v>19</v>
       </c>
       <c r="D31" s="5" t="s">
@@ -1170,9 +1188,9 @@
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="49"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="39"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="27"/>
       <c r="D32" s="5" t="s">
         <v>2</v>
       </c>
@@ -1182,9 +1200,9 @@
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="49"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="39"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="27"/>
       <c r="D33" s="5" t="s">
         <v>3</v>
       </c>
@@ -1194,9 +1212,9 @@
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="49"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="39" t="s">
+      <c r="A34" s="22"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="27" t="s">
         <v>20</v>
       </c>
       <c r="D34" s="5" t="s">
@@ -1208,9 +1226,9 @@
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="49"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="39"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="27"/>
       <c r="D35" s="5" t="s">
         <v>16</v>
       </c>
@@ -1220,9 +1238,9 @@
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="49"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="39"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="27"/>
       <c r="D36" s="5" t="s">
         <v>17</v>
       </c>
@@ -1232,9 +1250,9 @@
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="49"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="39" t="s">
+      <c r="A37" s="22"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="27" t="s">
         <v>22</v>
       </c>
       <c r="D37" s="5" t="s">
@@ -1243,12 +1261,14 @@
       <c r="E37" s="2">
         <v>36</v>
       </c>
-      <c r="F37" s="3"/>
+      <c r="F37" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="39"/>
+      <c r="A38" s="22"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="27"/>
       <c r="D38" s="5" t="s">
         <v>1</v>
       </c>
@@ -1258,9 +1278,9 @@
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="49"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="39"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="27"/>
       <c r="D39" s="5" t="s">
         <v>2</v>
       </c>
@@ -1270,9 +1290,9 @@
       <c r="F39" s="3"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="49"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="39"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="27"/>
       <c r="D40" s="5" t="s">
         <v>3</v>
       </c>
@@ -1282,9 +1302,9 @@
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="49"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="39" t="s">
+      <c r="A41" s="22"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="27" t="s">
         <v>23</v>
       </c>
       <c r="D41" s="5" t="s">
@@ -1293,12 +1313,14 @@
       <c r="E41" s="2">
         <v>40</v>
       </c>
-      <c r="F41" s="3"/>
+      <c r="F41" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="49"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="39"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="27"/>
       <c r="D42" s="5" t="s">
         <v>1</v>
       </c>
@@ -1308,9 +1330,9 @@
       <c r="F42" s="3"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="49"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="39"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="27"/>
       <c r="D43" s="5" t="s">
         <v>2</v>
       </c>
@@ -1320,9 +1342,9 @@
       <c r="F43" s="3"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="49"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="39"/>
+      <c r="A44" s="22"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="27"/>
       <c r="D44" s="5" t="s">
         <v>3</v>
       </c>
@@ -1332,8 +1354,8 @@
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="49"/>
-      <c r="B45" s="27"/>
+      <c r="A45" s="22"/>
+      <c r="B45" s="40"/>
       <c r="C45" s="6" t="s">
         <v>24</v>
       </c>
@@ -1343,8 +1365,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="49"/>
-      <c r="B46" s="28"/>
+      <c r="A46" s="22"/>
+      <c r="B46" s="41"/>
       <c r="C46" s="6" t="s">
         <v>25</v>
       </c>
@@ -1369,60 +1391,66 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="49">
+      <c r="A48" s="22">
         <v>3</v>
       </c>
-      <c r="B48" s="36" t="s">
+      <c r="B48" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="31" t="s">
+      <c r="C48" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="32"/>
+      <c r="D48" s="43"/>
       <c r="E48" s="2">
         <v>47</v>
       </c>
+      <c r="F48" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="49"/>
-      <c r="B49" s="36"/>
-      <c r="C49" s="31" t="s">
+      <c r="A49" s="22"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="32"/>
+      <c r="D49" s="43"/>
       <c r="E49" s="2">
         <v>48</v>
       </c>
+      <c r="F49" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="49"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="31" t="s">
+      <c r="A50" s="22"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="32"/>
+      <c r="D50" s="43"/>
       <c r="E50" s="2">
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="49"/>
-      <c r="B51" s="36"/>
-      <c r="C51" s="31" t="s">
+      <c r="A51" s="22"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="32"/>
+      <c r="D51" s="43"/>
       <c r="E51" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="49"/>
-      <c r="B52" s="36"/>
-      <c r="C52" s="31" t="s">
+      <c r="A52" s="22"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="32"/>
+      <c r="D52" s="43"/>
       <c r="E52" s="2">
         <v>51</v>
       </c>
@@ -1443,13 +1471,13 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="49">
+      <c r="A54" s="22">
         <v>5</v>
       </c>
-      <c r="B54" s="37" t="s">
+      <c r="B54" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C54" s="40" t="s">
+      <c r="C54" s="28" t="s">
         <v>35</v>
       </c>
       <c r="D54" s="13" t="s">
@@ -1461,9 +1489,9 @@
       <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="49"/>
-      <c r="B55" s="37"/>
-      <c r="C55" s="40"/>
+      <c r="A55" s="22"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="28"/>
       <c r="D55" s="13" t="s">
         <v>37</v>
       </c>
@@ -1473,9 +1501,9 @@
       <c r="F55" s="3"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="49"/>
-      <c r="B56" s="37"/>
-      <c r="C56" s="40"/>
+      <c r="A56" s="22"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="28"/>
       <c r="D56" s="13" t="s">
         <v>38</v>
       </c>
@@ -1485,9 +1513,9 @@
       <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="49"/>
-      <c r="B57" s="37"/>
-      <c r="C57" s="40"/>
+      <c r="A57" s="22"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="28"/>
       <c r="D57" s="13" t="s">
         <v>39</v>
       </c>
@@ -1497,35 +1525,41 @@
       <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="49"/>
-      <c r="B58" s="37"/>
-      <c r="C58" s="33" t="s">
+      <c r="A58" s="22"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="D58" s="34"/>
+      <c r="D58" s="45"/>
       <c r="E58" s="2">
         <v>57</v>
       </c>
+      <c r="F58" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="49"/>
-      <c r="B59" s="37"/>
-      <c r="C59" s="33" t="s">
+      <c r="A59" s="22"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="D59" s="34"/>
+      <c r="D59" s="45"/>
       <c r="E59" s="2">
         <v>58</v>
       </c>
+      <c r="F59" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="49">
+      <c r="A60" s="22">
         <v>7</v>
       </c>
-      <c r="B60" s="38" t="s">
+      <c r="B60" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C60" s="41" t="s">
+      <c r="C60" s="29" t="s">
         <v>5</v>
       </c>
       <c r="D60" s="14" t="s">
@@ -1534,12 +1568,14 @@
       <c r="E60" s="2">
         <v>59</v>
       </c>
-      <c r="F60" s="3"/>
+      <c r="F60" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="49"/>
-      <c r="B61" s="38"/>
-      <c r="C61" s="41"/>
+      <c r="A61" s="22"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="29"/>
       <c r="D61" s="14" t="s">
         <v>1</v>
       </c>
@@ -1549,9 +1585,9 @@
       <c r="F61" s="3"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="49"/>
-      <c r="B62" s="38"/>
-      <c r="C62" s="41"/>
+      <c r="A62" s="22"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="29"/>
       <c r="D62" s="14" t="s">
         <v>2</v>
       </c>
@@ -1561,9 +1597,9 @@
       <c r="F62" s="3"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="49"/>
-      <c r="B63" s="38"/>
-      <c r="C63" s="41"/>
+      <c r="A63" s="22"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="29"/>
       <c r="D63" s="14" t="s">
         <v>3</v>
       </c>
@@ -1573,23 +1609,23 @@
       <c r="F63" s="3"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="49"/>
-      <c r="B64" s="38"/>
-      <c r="C64" s="22" t="s">
+      <c r="A64" s="22"/>
+      <c r="B64" s="26"/>
+      <c r="C64" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="D64" s="23"/>
+      <c r="D64" s="36"/>
       <c r="E64" s="2">
         <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="49"/>
-      <c r="B65" s="38"/>
-      <c r="C65" s="22" t="s">
+      <c r="A65" s="22"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D65" s="23"/>
+      <c r="D65" s="36"/>
       <c r="E65" s="2">
         <v>64</v>
       </c>
@@ -1647,13 +1683,20 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="A60:A65"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="A31:A46"/>
-    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="B31:B46"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C25:D25"/>
     <mergeCell ref="B2:B17"/>
     <mergeCell ref="B48:B52"/>
     <mergeCell ref="B54:B59"/>
@@ -1670,20 +1713,13 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C31:C33"/>
     <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="B31:B46"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A31:A46"/>
+    <mergeCell ref="A48:A52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>

--- a/trunk/Assign_Write_UseCase_Description.xlsx
+++ b/trunk/Assign_Write_UseCase_Description.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CP\group-22-tsmt\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="4656"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="51">
   <si>
     <t>Search</t>
   </si>
@@ -171,6 +166,12 @@
   </si>
   <si>
     <t>HienNV</t>
+  </si>
+  <si>
+    <t>TuanND</t>
+  </si>
+  <si>
+    <t>TuaND</t>
   </si>
 </sst>
 </file>
@@ -181,21 +182,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -419,89 +420,89 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -563,7 +564,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -598,7 +599,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -775,7 +776,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -785,24 +786,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.8984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.09765625" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23" t="s">
+      <c r="A2" s="49"/>
+      <c r="B2" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="46" t="s">
         <v>47</v>
       </c>
       <c r="D2" s="15" t="s">
@@ -814,21 +815,23 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="30"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="46"/>
       <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="30"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="46"/>
       <c r="D4" s="15" t="s">
         <v>3</v>
       </c>
@@ -838,9 +841,9 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="30" t="s">
+      <c r="A5" s="49"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="46" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="15" t="s">
@@ -854,9 +857,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="30"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="46"/>
       <c r="D6" s="15" t="s">
         <v>1</v>
       </c>
@@ -866,21 +869,23 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="30"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="15" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="2">
         <v>6</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="30"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="46"/>
       <c r="D8" s="15" t="s">
         <v>3</v>
       </c>
@@ -890,9 +895,9 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="30" t="s">
+      <c r="A9" s="49"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="46" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -906,9 +911,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="30"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="46"/>
       <c r="D10" s="15" t="s">
         <v>1</v>
       </c>
@@ -918,21 +923,23 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="30"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="46"/>
       <c r="D11" s="15" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="30"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="46"/>
       <c r="D12" s="15" t="s">
         <v>3</v>
       </c>
@@ -942,9 +949,9 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="30" t="s">
+      <c r="A13" s="49"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="46" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="15" t="s">
@@ -958,9 +965,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="30"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="46"/>
       <c r="D14" s="15" t="s">
         <v>1</v>
       </c>
@@ -970,21 +977,23 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="30"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="46"/>
       <c r="D15" s="15" t="s">
         <v>2</v>
       </c>
       <c r="E15" s="2">
         <v>14</v>
       </c>
-      <c r="F15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="30"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="46"/>
       <c r="D16" s="15" t="s">
         <v>3</v>
       </c>
@@ -994,21 +1003,21 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="31" t="s">
+      <c r="A17" s="49"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="31"/>
+      <c r="D17" s="47"/>
       <c r="E17" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="22">
+      <c r="A18" s="49">
         <v>2</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="24" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="16" t="s">
@@ -1020,8 +1029,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="38"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="16" t="s">
         <v>9</v>
       </c>
@@ -1034,8 +1043,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="38"/>
+      <c r="A20" s="49"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="16" t="s">
         <v>10</v>
       </c>
@@ -1045,8 +1054,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="38"/>
+      <c r="A21" s="49"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="16" t="s">
         <v>11</v>
       </c>
@@ -1059,8 +1068,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="38"/>
+      <c r="A22" s="49"/>
+      <c r="B22" s="25"/>
       <c r="C22" s="16" t="s">
         <v>12</v>
       </c>
@@ -1070,8 +1079,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
-      <c r="B23" s="38"/>
+      <c r="A23" s="49"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="17" t="s">
         <v>13</v>
       </c>
@@ -1081,8 +1090,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
-      <c r="B24" s="38"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="25"/>
       <c r="C24" s="17" t="s">
         <v>27</v>
       </c>
@@ -1090,26 +1099,29 @@
       <c r="E24" s="2">
         <v>23</v>
       </c>
+      <c r="F24" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="48" t="s">
+      <c r="A25" s="49"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="49"/>
+      <c r="D25" s="38"/>
       <c r="E25" s="2">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="22">
+      <c r="A26" s="49">
         <v>6</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="29" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="19" t="s">
@@ -1121,21 +1133,23 @@
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
+      <c r="A27" s="49"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
       <c r="D27" s="19" t="s">
         <v>16</v>
       </c>
       <c r="E27" s="2">
         <v>26</v>
       </c>
-      <c r="F27" s="3"/>
+      <c r="F27" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="34"/>
+      <c r="A28" s="49"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="48"/>
       <c r="D28" s="19" t="s">
         <v>17</v>
       </c>
@@ -1145,8 +1159,8 @@
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
-      <c r="B29" s="33"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="30"/>
       <c r="C29" s="20" t="s">
         <v>18</v>
       </c>
@@ -1156,12 +1170,12 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="46" t="s">
+      <c r="A30" s="49"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="47"/>
+      <c r="D30" s="36"/>
       <c r="E30" s="2">
         <v>29</v>
       </c>
@@ -1170,13 +1184,13 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="22">
+      <c r="A31" s="49">
         <v>4</v>
       </c>
-      <c r="B31" s="40" t="s">
+      <c r="B31" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D31" s="5" t="s">
@@ -1188,21 +1202,23 @@
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="27"/>
+      <c r="A32" s="49"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="43"/>
       <c r="D32" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E32" s="2">
         <v>31</v>
       </c>
-      <c r="F32" s="3"/>
+      <c r="F32" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="27"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="43"/>
       <c r="D33" s="5" t="s">
         <v>3</v>
       </c>
@@ -1212,9 +1228,9 @@
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="27" t="s">
+      <c r="A34" s="49"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="43" t="s">
         <v>20</v>
       </c>
       <c r="D34" s="5" t="s">
@@ -1226,21 +1242,23 @@
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="27"/>
+      <c r="A35" s="49"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="43"/>
       <c r="D35" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E35" s="2">
         <v>34</v>
       </c>
-      <c r="F35" s="3"/>
+      <c r="F35" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="27"/>
+      <c r="A36" s="49"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="43"/>
       <c r="D36" s="5" t="s">
         <v>17</v>
       </c>
@@ -1250,9 +1268,9 @@
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="27" t="s">
+      <c r="A37" s="49"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D37" s="5" t="s">
@@ -1266,9 +1284,9 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="22"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="27"/>
+      <c r="A38" s="49"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="43"/>
       <c r="D38" s="5" t="s">
         <v>1</v>
       </c>
@@ -1278,21 +1296,23 @@
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="27"/>
+      <c r="A39" s="49"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="43"/>
       <c r="D39" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E39" s="2">
         <v>38</v>
       </c>
-      <c r="F39" s="3"/>
+      <c r="F39" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="22"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="27"/>
+      <c r="A40" s="49"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="43"/>
       <c r="D40" s="5" t="s">
         <v>3</v>
       </c>
@@ -1302,9 +1322,9 @@
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="27" t="s">
+      <c r="A41" s="49"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="43" t="s">
         <v>23</v>
       </c>
       <c r="D41" s="5" t="s">
@@ -1318,9 +1338,9 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="22"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="27"/>
+      <c r="A42" s="49"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="43"/>
       <c r="D42" s="5" t="s">
         <v>1</v>
       </c>
@@ -1330,21 +1350,23 @@
       <c r="F42" s="3"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
-      <c r="B43" s="40"/>
-      <c r="C43" s="27"/>
+      <c r="A43" s="49"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="43"/>
       <c r="D43" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E43" s="2">
         <v>42</v>
       </c>
-      <c r="F43" s="3"/>
+      <c r="F43" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="22"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="27"/>
+      <c r="A44" s="49"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="43"/>
       <c r="D44" s="5" t="s">
         <v>3</v>
       </c>
@@ -1354,8 +1376,8 @@
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="22"/>
-      <c r="B45" s="40"/>
+      <c r="A45" s="49"/>
+      <c r="B45" s="27"/>
       <c r="C45" s="6" t="s">
         <v>24</v>
       </c>
@@ -1365,8 +1387,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="22"/>
-      <c r="B46" s="41"/>
+      <c r="A46" s="49"/>
+      <c r="B46" s="28"/>
       <c r="C46" s="6" t="s">
         <v>25</v>
       </c>
@@ -1391,16 +1413,16 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="22">
+      <c r="A48" s="49">
         <v>3</v>
       </c>
-      <c r="B48" s="24" t="s">
+      <c r="B48" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="42" t="s">
+      <c r="C48" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="43"/>
+      <c r="D48" s="32"/>
       <c r="E48" s="2">
         <v>47</v>
       </c>
@@ -1409,12 +1431,12 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="22"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="42" t="s">
+      <c r="A49" s="49"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="43"/>
+      <c r="D49" s="32"/>
       <c r="E49" s="2">
         <v>48</v>
       </c>
@@ -1423,34 +1445,34 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="22"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="42" t="s">
+      <c r="A50" s="49"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="43"/>
+      <c r="D50" s="32"/>
       <c r="E50" s="2">
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="22"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="42" t="s">
+      <c r="A51" s="49"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="43"/>
+      <c r="D51" s="32"/>
       <c r="E51" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="22"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="42" t="s">
+      <c r="A52" s="49"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="43"/>
+      <c r="D52" s="32"/>
       <c r="E52" s="2">
         <v>51</v>
       </c>
@@ -1471,13 +1493,13 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="22">
+      <c r="A54" s="49">
         <v>5</v>
       </c>
-      <c r="B54" s="25" t="s">
+      <c r="B54" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="C54" s="28" t="s">
+      <c r="C54" s="44" t="s">
         <v>35</v>
       </c>
       <c r="D54" s="13" t="s">
@@ -1489,9 +1511,9 @@
       <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="22"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="28"/>
+      <c r="A55" s="49"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="44"/>
       <c r="D55" s="13" t="s">
         <v>37</v>
       </c>
@@ -1501,21 +1523,23 @@
       <c r="F55" s="3"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="22"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="28"/>
+      <c r="A56" s="49"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="44"/>
       <c r="D56" s="13" t="s">
         <v>38</v>
       </c>
       <c r="E56" s="2">
         <v>55</v>
       </c>
-      <c r="F56" s="3"/>
+      <c r="F56" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="22"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="28"/>
+      <c r="A57" s="49"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="44"/>
       <c r="D57" s="13" t="s">
         <v>39</v>
       </c>
@@ -1525,12 +1549,12 @@
       <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="22"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="44" t="s">
+      <c r="A58" s="49"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D58" s="45"/>
+      <c r="D58" s="34"/>
       <c r="E58" s="2">
         <v>57</v>
       </c>
@@ -1539,12 +1563,12 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="22"/>
-      <c r="B59" s="25"/>
-      <c r="C59" s="44" t="s">
+      <c r="A59" s="49"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D59" s="45"/>
+      <c r="D59" s="34"/>
       <c r="E59" s="2">
         <v>58</v>
       </c>
@@ -1553,13 +1577,13 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="22">
+      <c r="A60" s="49">
         <v>7</v>
       </c>
-      <c r="B60" s="26" t="s">
+      <c r="B60" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="C60" s="29" t="s">
+      <c r="C60" s="45" t="s">
         <v>5</v>
       </c>
       <c r="D60" s="14" t="s">
@@ -1573,9 +1597,9 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="22"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="29"/>
+      <c r="A61" s="49"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="45"/>
       <c r="D61" s="14" t="s">
         <v>1</v>
       </c>
@@ -1585,21 +1609,23 @@
       <c r="F61" s="3"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="22"/>
-      <c r="B62" s="26"/>
-      <c r="C62" s="29"/>
+      <c r="A62" s="49"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="45"/>
       <c r="D62" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E62" s="2">
         <v>61</v>
       </c>
-      <c r="F62" s="3"/>
+      <c r="F62" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="22"/>
-      <c r="B63" s="26"/>
-      <c r="C63" s="29"/>
+      <c r="A63" s="49"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="45"/>
       <c r="D63" s="14" t="s">
         <v>3</v>
       </c>
@@ -1609,23 +1635,23 @@
       <c r="F63" s="3"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="22"/>
-      <c r="B64" s="26"/>
-      <c r="C64" s="35" t="s">
+      <c r="A64" s="49"/>
+      <c r="B64" s="42"/>
+      <c r="C64" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D64" s="36"/>
+      <c r="D64" s="23"/>
       <c r="E64" s="2">
         <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="22"/>
-      <c r="B65" s="26"/>
-      <c r="C65" s="35" t="s">
+      <c r="A65" s="49"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D65" s="36"/>
+      <c r="D65" s="23"/>
       <c r="E65" s="2">
         <v>64</v>
       </c>
@@ -1683,20 +1709,13 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="B31:B46"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A31:A46"/>
+    <mergeCell ref="A48:A52"/>
     <mergeCell ref="B2:B17"/>
     <mergeCell ref="B48:B52"/>
     <mergeCell ref="B54:B59"/>
@@ -1713,13 +1732,20 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C31:C33"/>
     <mergeCell ref="C26:C28"/>
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="A60:A65"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="A31:A46"/>
-    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="B31:B46"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C25:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>

--- a/trunk/Assign_Write_UseCase_Description.xlsx
+++ b/trunk/Assign_Write_UseCase_Description.xlsx
@@ -1,14 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tri Le Nguyen Huu\Desktop\TSMT\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$65</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -19,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="51">
   <si>
     <t>Search</t>
   </si>
@@ -171,7 +179,7 @@
     <t>TuanND</t>
   </si>
   <si>
-    <t>TuaND</t>
+    <t>Assign</t>
   </si>
 </sst>
 </file>
@@ -420,6 +428,45 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -441,12 +488,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -470,39 +511,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -776,7 +784,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -784,10 +792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F82"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,12 +806,17 @@
     <col min="6" max="6" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="49"/>
-      <c r="B2" s="39" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="30" t="s">
         <v>47</v>
       </c>
       <c r="D2" s="15" t="s">
@@ -815,9 +828,9 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="49"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="46"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="30"/>
       <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
@@ -829,9 +842,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="46"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="30"/>
       <c r="D4" s="15" t="s">
         <v>3</v>
       </c>
@@ -841,9 +854,9 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="46" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="30" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="15" t="s">
@@ -857,9 +870,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="46"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="15" t="s">
         <v>1</v>
       </c>
@@ -869,9 +882,9 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="46"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="30"/>
       <c r="D7" s="15" t="s">
         <v>2</v>
       </c>
@@ -883,9 +896,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="46"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="30"/>
       <c r="D8" s="15" t="s">
         <v>3</v>
       </c>
@@ -895,9 +908,9 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="46" t="s">
+      <c r="A9" s="22"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="30" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -911,9 +924,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="46"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="30"/>
       <c r="D10" s="15" t="s">
         <v>1</v>
       </c>
@@ -923,9 +936,9 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="46"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="30"/>
       <c r="D11" s="15" t="s">
         <v>2</v>
       </c>
@@ -937,9 +950,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="46"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="30"/>
       <c r="D12" s="15" t="s">
         <v>3</v>
       </c>
@@ -949,9 +962,9 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="46" t="s">
+      <c r="A13" s="22"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="15" t="s">
@@ -965,9 +978,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="46"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="30"/>
       <c r="D14" s="15" t="s">
         <v>1</v>
       </c>
@@ -977,9 +990,9 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="46"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="30"/>
       <c r="D15" s="15" t="s">
         <v>2</v>
       </c>
@@ -991,9 +1004,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="46"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="30"/>
       <c r="D16" s="15" t="s">
         <v>3</v>
       </c>
@@ -1003,21 +1016,21 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="47" t="s">
+      <c r="A17" s="22"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="47"/>
+      <c r="D17" s="31"/>
       <c r="E17" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="49">
+      <c r="A18" s="22">
         <v>2</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="37" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="16" t="s">
@@ -1029,8 +1042,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="49"/>
-      <c r="B19" s="25"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="38"/>
       <c r="C19" s="16" t="s">
         <v>9</v>
       </c>
@@ -1043,8 +1056,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
-      <c r="B20" s="25"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="38"/>
       <c r="C20" s="16" t="s">
         <v>10</v>
       </c>
@@ -1054,8 +1067,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
-      <c r="B21" s="25"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="38"/>
       <c r="C21" s="16" t="s">
         <v>11</v>
       </c>
@@ -1068,8 +1081,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
-      <c r="B22" s="25"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="38"/>
       <c r="C22" s="16" t="s">
         <v>12</v>
       </c>
@@ -1079,8 +1092,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
-      <c r="B23" s="25"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="38"/>
       <c r="C23" s="17" t="s">
         <v>13</v>
       </c>
@@ -1090,8 +1103,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
-      <c r="B24" s="25"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="38"/>
       <c r="C24" s="17" t="s">
         <v>27</v>
       </c>
@@ -1104,24 +1117,24 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="37" t="s">
+      <c r="A25" s="22"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="38"/>
+      <c r="D25" s="49"/>
       <c r="E25" s="2">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="49">
+      <c r="A26" s="22">
         <v>6</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="32" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="19" t="s">
@@ -1133,9 +1146,9 @@
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="49"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
       <c r="D27" s="19" t="s">
         <v>16</v>
       </c>
@@ -1147,9 +1160,9 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="49"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="48"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="34"/>
       <c r="D28" s="19" t="s">
         <v>17</v>
       </c>
@@ -1159,8 +1172,8 @@
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
-      <c r="B29" s="30"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="20" t="s">
         <v>18</v>
       </c>
@@ -1170,12 +1183,12 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="49"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="35" t="s">
+      <c r="A30" s="22"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="36"/>
+      <c r="D30" s="47"/>
       <c r="E30" s="2">
         <v>29</v>
       </c>
@@ -1184,13 +1197,13 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="49">
+      <c r="A31" s="22">
         <v>4</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="43" t="s">
+      <c r="C31" s="27" t="s">
         <v>19</v>
       </c>
       <c r="D31" s="5" t="s">
@@ -1202,9 +1215,9 @@
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="49"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="43"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="27"/>
       <c r="D32" s="5" t="s">
         <v>2</v>
       </c>
@@ -1212,13 +1225,13 @@
         <v>31</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="49"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="43"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="27"/>
       <c r="D33" s="5" t="s">
         <v>3</v>
       </c>
@@ -1228,9 +1241,9 @@
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="49"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="43" t="s">
+      <c r="A34" s="22"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="27" t="s">
         <v>20</v>
       </c>
       <c r="D34" s="5" t="s">
@@ -1242,9 +1255,9 @@
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="49"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="43"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="27"/>
       <c r="D35" s="5" t="s">
         <v>16</v>
       </c>
@@ -1256,9 +1269,9 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="49"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="43"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="27"/>
       <c r="D36" s="5" t="s">
         <v>17</v>
       </c>
@@ -1268,9 +1281,9 @@
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="49"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="43" t="s">
+      <c r="A37" s="22"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="27" t="s">
         <v>22</v>
       </c>
       <c r="D37" s="5" t="s">
@@ -1284,9 +1297,9 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="43"/>
+      <c r="A38" s="22"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="27"/>
       <c r="D38" s="5" t="s">
         <v>1</v>
       </c>
@@ -1296,9 +1309,9 @@
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="49"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="43"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="27"/>
       <c r="D39" s="5" t="s">
         <v>2</v>
       </c>
@@ -1306,13 +1319,13 @@
         <v>38</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="49"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="43"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="27"/>
       <c r="D40" s="5" t="s">
         <v>3</v>
       </c>
@@ -1322,9 +1335,9 @@
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="49"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="43" t="s">
+      <c r="A41" s="22"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="27" t="s">
         <v>23</v>
       </c>
       <c r="D41" s="5" t="s">
@@ -1338,9 +1351,9 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="49"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="43"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="27"/>
       <c r="D42" s="5" t="s">
         <v>1</v>
       </c>
@@ -1350,9 +1363,9 @@
       <c r="F42" s="3"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="49"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="43"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="27"/>
       <c r="D43" s="5" t="s">
         <v>2</v>
       </c>
@@ -1364,9 +1377,9 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="49"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="43"/>
+      <c r="A44" s="22"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="27"/>
       <c r="D44" s="5" t="s">
         <v>3</v>
       </c>
@@ -1376,8 +1389,8 @@
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="49"/>
-      <c r="B45" s="27"/>
+      <c r="A45" s="22"/>
+      <c r="B45" s="40"/>
       <c r="C45" s="6" t="s">
         <v>24</v>
       </c>
@@ -1387,8 +1400,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="49"/>
-      <c r="B46" s="28"/>
+      <c r="A46" s="22"/>
+      <c r="B46" s="41"/>
       <c r="C46" s="6" t="s">
         <v>25</v>
       </c>
@@ -1413,16 +1426,16 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="49">
+      <c r="A48" s="22">
         <v>3</v>
       </c>
-      <c r="B48" s="40" t="s">
+      <c r="B48" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="31" t="s">
+      <c r="C48" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="32"/>
+      <c r="D48" s="43"/>
       <c r="E48" s="2">
         <v>47</v>
       </c>
@@ -1431,12 +1444,12 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="49"/>
-      <c r="B49" s="40"/>
-      <c r="C49" s="31" t="s">
+      <c r="A49" s="22"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="32"/>
+      <c r="D49" s="43"/>
       <c r="E49" s="2">
         <v>48</v>
       </c>
@@ -1445,34 +1458,34 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="49"/>
-      <c r="B50" s="40"/>
-      <c r="C50" s="31" t="s">
+      <c r="A50" s="22"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="32"/>
+      <c r="D50" s="43"/>
       <c r="E50" s="2">
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="49"/>
-      <c r="B51" s="40"/>
-      <c r="C51" s="31" t="s">
+      <c r="A51" s="22"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="32"/>
+      <c r="D51" s="43"/>
       <c r="E51" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="49"/>
-      <c r="B52" s="40"/>
-      <c r="C52" s="31" t="s">
+      <c r="A52" s="22"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="32"/>
+      <c r="D52" s="43"/>
       <c r="E52" s="2">
         <v>51</v>
       </c>
@@ -1493,13 +1506,13 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="49">
+      <c r="A54" s="22">
         <v>5</v>
       </c>
-      <c r="B54" s="41" t="s">
+      <c r="B54" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C54" s="44" t="s">
+      <c r="C54" s="28" t="s">
         <v>35</v>
       </c>
       <c r="D54" s="13" t="s">
@@ -1511,9 +1524,9 @@
       <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="49"/>
-      <c r="B55" s="41"/>
-      <c r="C55" s="44"/>
+      <c r="A55" s="22"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="28"/>
       <c r="D55" s="13" t="s">
         <v>37</v>
       </c>
@@ -1523,9 +1536,9 @@
       <c r="F55" s="3"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="49"/>
-      <c r="B56" s="41"/>
-      <c r="C56" s="44"/>
+      <c r="A56" s="22"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="28"/>
       <c r="D56" s="13" t="s">
         <v>38</v>
       </c>
@@ -1537,9 +1550,9 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="49"/>
-      <c r="B57" s="41"/>
-      <c r="C57" s="44"/>
+      <c r="A57" s="22"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="28"/>
       <c r="D57" s="13" t="s">
         <v>39</v>
       </c>
@@ -1549,12 +1562,12 @@
       <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="49"/>
-      <c r="B58" s="41"/>
-      <c r="C58" s="33" t="s">
+      <c r="A58" s="22"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="D58" s="34"/>
+      <c r="D58" s="45"/>
       <c r="E58" s="2">
         <v>57</v>
       </c>
@@ -1563,12 +1576,12 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="49"/>
-      <c r="B59" s="41"/>
-      <c r="C59" s="33" t="s">
+      <c r="A59" s="22"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="D59" s="34"/>
+      <c r="D59" s="45"/>
       <c r="E59" s="2">
         <v>58</v>
       </c>
@@ -1577,13 +1590,13 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="49">
+      <c r="A60" s="22">
         <v>7</v>
       </c>
-      <c r="B60" s="42" t="s">
+      <c r="B60" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C60" s="45" t="s">
+      <c r="C60" s="29" t="s">
         <v>5</v>
       </c>
       <c r="D60" s="14" t="s">
@@ -1597,9 +1610,9 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="49"/>
-      <c r="B61" s="42"/>
-      <c r="C61" s="45"/>
+      <c r="A61" s="22"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="29"/>
       <c r="D61" s="14" t="s">
         <v>1</v>
       </c>
@@ -1609,9 +1622,9 @@
       <c r="F61" s="3"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="49"/>
-      <c r="B62" s="42"/>
-      <c r="C62" s="45"/>
+      <c r="A62" s="22"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="29"/>
       <c r="D62" s="14" t="s">
         <v>2</v>
       </c>
@@ -1623,9 +1636,9 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="49"/>
-      <c r="B63" s="42"/>
-      <c r="C63" s="45"/>
+      <c r="A63" s="22"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="29"/>
       <c r="D63" s="14" t="s">
         <v>3</v>
       </c>
@@ -1635,23 +1648,23 @@
       <c r="F63" s="3"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="49"/>
-      <c r="B64" s="42"/>
-      <c r="C64" s="22" t="s">
+      <c r="A64" s="22"/>
+      <c r="B64" s="26"/>
+      <c r="C64" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="D64" s="23"/>
+      <c r="D64" s="36"/>
       <c r="E64" s="2">
         <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="49"/>
-      <c r="B65" s="42"/>
-      <c r="C65" s="22" t="s">
+      <c r="A65" s="22"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D65" s="23"/>
+      <c r="D65" s="36"/>
       <c r="E65" s="2">
         <v>64</v>
       </c>
@@ -1708,14 +1721,22 @@
       <c r="D82" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F65"/>
   <mergeCells count="37">
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="A60:A65"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="A31:A46"/>
-    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="B31:B46"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C25:D25"/>
     <mergeCell ref="B2:B17"/>
     <mergeCell ref="B48:B52"/>
     <mergeCell ref="B54:B59"/>
@@ -1732,20 +1753,13 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C31:C33"/>
     <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="B31:B46"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A31:A46"/>
+    <mergeCell ref="A48:A52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>

--- a/trunk/Assign_Write_UseCase_Description.xlsx
+++ b/trunk/Assign_Write_UseCase_Description.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tri Le Nguyen Huu\Desktop\TSMT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vinh\Desktop\group-22-tsmt\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$F$82</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="52">
   <si>
     <t>Search</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>Assign</t>
+  </si>
+  <si>
+    <t>VinhTNK</t>
   </si>
 </sst>
 </file>
@@ -428,89 +431,89 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -795,7 +798,7 @@
   <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,11 +815,11 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23" t="s">
+      <c r="A2" s="49"/>
+      <c r="B2" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="46" t="s">
         <v>47</v>
       </c>
       <c r="D2" s="15" t="s">
@@ -825,12 +828,14 @@
       <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="30"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="46"/>
       <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
@@ -842,9 +847,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="30"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="46"/>
       <c r="D4" s="15" t="s">
         <v>3</v>
       </c>
@@ -854,9 +859,9 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="30" t="s">
+      <c r="A5" s="49"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="46" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="15" t="s">
@@ -870,21 +875,23 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="30"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="46"/>
       <c r="D6" s="15" t="s">
         <v>1</v>
       </c>
       <c r="E6" s="2">
         <v>5</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="30"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="15" t="s">
         <v>2</v>
       </c>
@@ -896,9 +903,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="30"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="46"/>
       <c r="D8" s="15" t="s">
         <v>3</v>
       </c>
@@ -908,9 +915,9 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="30" t="s">
+      <c r="A9" s="49"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="46" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -924,21 +931,23 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="30"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="46"/>
       <c r="D10" s="15" t="s">
         <v>1</v>
       </c>
       <c r="E10" s="2">
         <v>9</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="30"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="46"/>
       <c r="D11" s="15" t="s">
         <v>2</v>
       </c>
@@ -950,9 +959,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="30"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="46"/>
       <c r="D12" s="15" t="s">
         <v>3</v>
       </c>
@@ -962,9 +971,9 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="30" t="s">
+      <c r="A13" s="49"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="46" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="15" t="s">
@@ -978,21 +987,23 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="30"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="46"/>
       <c r="D14" s="15" t="s">
         <v>1</v>
       </c>
       <c r="E14" s="2">
         <v>13</v>
       </c>
-      <c r="F14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="30"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="46"/>
       <c r="D15" s="15" t="s">
         <v>2</v>
       </c>
@@ -1004,9 +1015,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="30"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="46"/>
       <c r="D16" s="15" t="s">
         <v>3</v>
       </c>
@@ -1016,21 +1027,21 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="31" t="s">
+      <c r="A17" s="49"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="31"/>
+      <c r="D17" s="47"/>
       <c r="E17" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="22">
+      <c r="A18" s="49">
         <v>2</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="24" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="16" t="s">
@@ -1042,8 +1053,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="38"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="16" t="s">
         <v>9</v>
       </c>
@@ -1056,8 +1067,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="38"/>
+      <c r="A20" s="49"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="16" t="s">
         <v>10</v>
       </c>
@@ -1067,8 +1078,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="38"/>
+      <c r="A21" s="49"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="16" t="s">
         <v>11</v>
       </c>
@@ -1081,8 +1092,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="38"/>
+      <c r="A22" s="49"/>
+      <c r="B22" s="25"/>
       <c r="C22" s="16" t="s">
         <v>12</v>
       </c>
@@ -1092,8 +1103,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
-      <c r="B23" s="38"/>
+      <c r="A23" s="49"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="17" t="s">
         <v>13</v>
       </c>
@@ -1103,8 +1114,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
-      <c r="B24" s="38"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="25"/>
       <c r="C24" s="17" t="s">
         <v>27</v>
       </c>
@@ -1117,24 +1128,24 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="48" t="s">
+      <c r="A25" s="49"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="49"/>
+      <c r="D25" s="38"/>
       <c r="E25" s="2">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="22">
+      <c r="A26" s="49">
         <v>6</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="29" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="19" t="s">
@@ -1143,12 +1154,14 @@
       <c r="E26" s="2">
         <v>25</v>
       </c>
-      <c r="F26" s="3"/>
+      <c r="F26" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
+      <c r="A27" s="49"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
       <c r="D27" s="19" t="s">
         <v>16</v>
       </c>
@@ -1160,9 +1173,9 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="34"/>
+      <c r="A28" s="49"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="48"/>
       <c r="D28" s="19" t="s">
         <v>17</v>
       </c>
@@ -1172,8 +1185,8 @@
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
-      <c r="B29" s="33"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="30"/>
       <c r="C29" s="20" t="s">
         <v>18</v>
       </c>
@@ -1183,12 +1196,12 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="46" t="s">
+      <c r="A30" s="49"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="47"/>
+      <c r="D30" s="36"/>
       <c r="E30" s="2">
         <v>29</v>
       </c>
@@ -1197,13 +1210,13 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="22">
+      <c r="A31" s="49">
         <v>4</v>
       </c>
-      <c r="B31" s="40" t="s">
+      <c r="B31" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D31" s="5" t="s">
@@ -1212,12 +1225,14 @@
       <c r="E31" s="2">
         <v>30</v>
       </c>
-      <c r="F31" s="3"/>
+      <c r="F31" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="27"/>
+      <c r="A32" s="49"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="43"/>
       <c r="D32" s="5" t="s">
         <v>2</v>
       </c>
@@ -1229,9 +1244,9 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="27"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="43"/>
       <c r="D33" s="5" t="s">
         <v>3</v>
       </c>
@@ -1241,9 +1256,9 @@
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="27" t="s">
+      <c r="A34" s="49"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="43" t="s">
         <v>20</v>
       </c>
       <c r="D34" s="5" t="s">
@@ -1252,12 +1267,14 @@
       <c r="E34" s="2">
         <v>33</v>
       </c>
-      <c r="F34" s="3"/>
+      <c r="F34" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="27"/>
+      <c r="A35" s="49"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="43"/>
       <c r="D35" s="5" t="s">
         <v>16</v>
       </c>
@@ -1269,9 +1286,9 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="27"/>
+      <c r="A36" s="49"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="43"/>
       <c r="D36" s="5" t="s">
         <v>17</v>
       </c>
@@ -1281,9 +1298,9 @@
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="27" t="s">
+      <c r="A37" s="49"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D37" s="5" t="s">
@@ -1297,21 +1314,23 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="22"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="27"/>
+      <c r="A38" s="49"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="43"/>
       <c r="D38" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E38" s="2">
         <v>37</v>
       </c>
-      <c r="F38" s="3"/>
+      <c r="F38" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="27"/>
+      <c r="A39" s="49"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="43"/>
       <c r="D39" s="5" t="s">
         <v>2</v>
       </c>
@@ -1323,9 +1342,9 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="22"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="27"/>
+      <c r="A40" s="49"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="43"/>
       <c r="D40" s="5" t="s">
         <v>3</v>
       </c>
@@ -1335,9 +1354,9 @@
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="27" t="s">
+      <c r="A41" s="49"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="43" t="s">
         <v>23</v>
       </c>
       <c r="D41" s="5" t="s">
@@ -1351,21 +1370,23 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="22"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="27"/>
+      <c r="A42" s="49"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="43"/>
       <c r="D42" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E42" s="2">
         <v>41</v>
       </c>
-      <c r="F42" s="3"/>
+      <c r="F42" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
-      <c r="B43" s="40"/>
-      <c r="C43" s="27"/>
+      <c r="A43" s="49"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="43"/>
       <c r="D43" s="5" t="s">
         <v>2</v>
       </c>
@@ -1377,9 +1398,9 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="22"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="27"/>
+      <c r="A44" s="49"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="43"/>
       <c r="D44" s="5" t="s">
         <v>3</v>
       </c>
@@ -1389,8 +1410,8 @@
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="22"/>
-      <c r="B45" s="40"/>
+      <c r="A45" s="49"/>
+      <c r="B45" s="27"/>
       <c r="C45" s="6" t="s">
         <v>24</v>
       </c>
@@ -1400,8 +1421,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="22"/>
-      <c r="B46" s="41"/>
+      <c r="A46" s="49"/>
+      <c r="B46" s="28"/>
       <c r="C46" s="6" t="s">
         <v>25</v>
       </c>
@@ -1426,16 +1447,16 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="22">
+      <c r="A48" s="49">
         <v>3</v>
       </c>
-      <c r="B48" s="24" t="s">
+      <c r="B48" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="42" t="s">
+      <c r="C48" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="43"/>
+      <c r="D48" s="32"/>
       <c r="E48" s="2">
         <v>47</v>
       </c>
@@ -1444,12 +1465,12 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="22"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="42" t="s">
+      <c r="A49" s="49"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="43"/>
+      <c r="D49" s="32"/>
       <c r="E49" s="2">
         <v>48</v>
       </c>
@@ -1458,34 +1479,34 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="22"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="42" t="s">
+      <c r="A50" s="49"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="43"/>
+      <c r="D50" s="32"/>
       <c r="E50" s="2">
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="22"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="42" t="s">
+      <c r="A51" s="49"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="43"/>
+      <c r="D51" s="32"/>
       <c r="E51" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="22"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="42" t="s">
+      <c r="A52" s="49"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="43"/>
+      <c r="D52" s="32"/>
       <c r="E52" s="2">
         <v>51</v>
       </c>
@@ -1506,13 +1527,13 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="22">
+      <c r="A54" s="49">
         <v>5</v>
       </c>
-      <c r="B54" s="25" t="s">
+      <c r="B54" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="C54" s="28" t="s">
+      <c r="C54" s="44" t="s">
         <v>35</v>
       </c>
       <c r="D54" s="13" t="s">
@@ -1524,9 +1545,9 @@
       <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="22"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="28"/>
+      <c r="A55" s="49"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="44"/>
       <c r="D55" s="13" t="s">
         <v>37</v>
       </c>
@@ -1536,9 +1557,9 @@
       <c r="F55" s="3"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="22"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="28"/>
+      <c r="A56" s="49"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="44"/>
       <c r="D56" s="13" t="s">
         <v>38</v>
       </c>
@@ -1550,9 +1571,9 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="22"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="28"/>
+      <c r="A57" s="49"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="44"/>
       <c r="D57" s="13" t="s">
         <v>39</v>
       </c>
@@ -1562,12 +1583,12 @@
       <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="22"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="44" t="s">
+      <c r="A58" s="49"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D58" s="45"/>
+      <c r="D58" s="34"/>
       <c r="E58" s="2">
         <v>57</v>
       </c>
@@ -1576,12 +1597,12 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="22"/>
-      <c r="B59" s="25"/>
-      <c r="C59" s="44" t="s">
+      <c r="A59" s="49"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D59" s="45"/>
+      <c r="D59" s="34"/>
       <c r="E59" s="2">
         <v>58</v>
       </c>
@@ -1590,13 +1611,13 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="22">
+      <c r="A60" s="49">
         <v>7</v>
       </c>
-      <c r="B60" s="26" t="s">
+      <c r="B60" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="C60" s="29" t="s">
+      <c r="C60" s="45" t="s">
         <v>5</v>
       </c>
       <c r="D60" s="14" t="s">
@@ -1610,21 +1631,23 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="22"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="29"/>
+      <c r="A61" s="49"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="45"/>
       <c r="D61" s="14" t="s">
         <v>1</v>
       </c>
       <c r="E61" s="2">
         <v>60</v>
       </c>
-      <c r="F61" s="3"/>
+      <c r="F61" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="22"/>
-      <c r="B62" s="26"/>
-      <c r="C62" s="29"/>
+      <c r="A62" s="49"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="45"/>
       <c r="D62" s="14" t="s">
         <v>2</v>
       </c>
@@ -1636,9 +1659,9 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="22"/>
-      <c r="B63" s="26"/>
-      <c r="C63" s="29"/>
+      <c r="A63" s="49"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="45"/>
       <c r="D63" s="14" t="s">
         <v>3</v>
       </c>
@@ -1648,23 +1671,23 @@
       <c r="F63" s="3"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="22"/>
-      <c r="B64" s="26"/>
-      <c r="C64" s="35" t="s">
+      <c r="A64" s="49"/>
+      <c r="B64" s="42"/>
+      <c r="C64" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D64" s="36"/>
+      <c r="D64" s="23"/>
       <c r="E64" s="2">
         <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="22"/>
-      <c r="B65" s="26"/>
-      <c r="C65" s="35" t="s">
+      <c r="A65" s="49"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D65" s="36"/>
+      <c r="D65" s="23"/>
       <c r="E65" s="2">
         <v>64</v>
       </c>
@@ -1721,22 +1744,15 @@
       <c r="D82" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F65"/>
+  <autoFilter ref="F1:F82"/>
   <mergeCells count="37">
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="B31:B46"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A31:A46"/>
+    <mergeCell ref="A48:A52"/>
     <mergeCell ref="B2:B17"/>
     <mergeCell ref="B48:B52"/>
     <mergeCell ref="B54:B59"/>
@@ -1753,13 +1769,20 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C31:C33"/>
     <mergeCell ref="C26:C28"/>
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="A60:A65"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="A31:A46"/>
-    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="B31:B46"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C25:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>

--- a/trunk/Assign_Write_UseCase_Description.xlsx
+++ b/trunk/Assign_Write_UseCase_Description.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="52">
   <si>
     <t>Search</t>
   </si>
@@ -797,8 +797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,6 +807,7 @@
     <col min="3" max="3" width="35.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.140625" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1554,7 +1555,9 @@
       <c r="E55" s="2">
         <v>54</v>
       </c>
-      <c r="F55" s="3"/>
+      <c r="F55" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="49"/>
